--- a/Logistics2.xlsx
+++ b/Logistics2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vu.local\home\mez400\Documents\Arantza\Academia\TEACHING\Integrative practical\2019-2020\Cases\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\Werk\IntegrativePractical5\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E138BC-5C37-4A1B-8DB5-4244CA89E2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="11010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="14" r:id="rId1"/>
@@ -29,7 +30,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="8">km!$B$1:$AD$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">min!$B$1:$AD$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -305,7 +314,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,17 +385,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -439,124 +448,124 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:C223" totalsRowShown="0">
-  <autoFilter ref="A1:C223"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel1" displayName="Tabel1" ref="A1:C223" totalsRowShown="0">
+  <autoFilter ref="A1:C223" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="m2"/>
-    <tableColumn id="2" name="customer/day" dataDxfId="11"/>
-    <tableColumn id="3" name="tomato/day" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="m2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="customer/day" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="tomato/day" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="A1:C223" totalsRowShown="0">
-  <autoFilter ref="A1:C223"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabel2" displayName="Tabel2" ref="A1:C223" totalsRowShown="0">
+  <autoFilter ref="A1:C223" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="m2"/>
-    <tableColumn id="2" name="customer/day" dataDxfId="9"/>
-    <tableColumn id="3" name="tomato/day" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="m2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="customer/day" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="tomato/day" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel3" displayName="Tabel3" ref="A1:C223" totalsRowShown="0">
-  <autoFilter ref="A1:C223"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel3" displayName="Tabel3" ref="A1:C223" totalsRowShown="0">
+  <autoFilter ref="A1:C223" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="m2"/>
-    <tableColumn id="2" name="customer/day" dataDxfId="7"/>
-    <tableColumn id="3" name="tomato/day" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="m2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="customer/day" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="tomato/day" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel4" displayName="Tabel4" ref="A1:C223" totalsRowShown="0">
-  <autoFilter ref="A1:C223"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabel4" displayName="Tabel4" ref="A1:C223" totalsRowShown="0">
+  <autoFilter ref="A1:C223" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="m2"/>
-    <tableColumn id="2" name="customer/day" dataDxfId="5"/>
-    <tableColumn id="3" name="tomato/day" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="m2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="customer/day" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="tomato/day" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabel5" displayName="Tabel5" ref="A1:C223" totalsRowShown="0">
-  <autoFilter ref="A1:C223"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabel5" displayName="Tabel5" ref="A1:C223" totalsRowShown="0">
+  <autoFilter ref="A1:C223" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="m2"/>
-    <tableColumn id="2" name="customer/day" dataDxfId="3"/>
-    <tableColumn id="3" name="tomato/day" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="m2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="customer/day" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="tomato/day" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabel6" displayName="Tabel6" ref="A1:C223" totalsRowShown="0">
-  <autoFilter ref="A1:C223"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabel6" displayName="Tabel6" ref="A1:C223" totalsRowShown="0">
+  <autoFilter ref="A1:C223" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="m2"/>
-    <tableColumn id="2" name="customer/day" dataDxfId="1"/>
-    <tableColumn id="3" name="tomato/day" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="m2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="customer/day" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="tomato/day" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabel7" displayName="Tabel7" ref="A1:F30" totalsRowShown="0">
-  <autoFilter ref="A1:F30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabel7" displayName="Tabel7" ref="A1:F30" totalsRowShown="0">
+  <autoFilter ref="A1:F30" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="City"/>
-    <tableColumn id="2" name="Supermarket size"/>
-    <tableColumn id="3" name="Supermarket size2"/>
-    <tableColumn id="4" name="Supermarket size3"/>
-    <tableColumn id="5" name="Supermarket size4"/>
-    <tableColumn id="6" name="Supermarket size5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="City"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Supermarket size"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Supermarket size2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Supermarket size3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Supermarket size4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Supermarket size5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabel8" displayName="Tabel8" ref="A1:F30" totalsRowShown="0">
-  <autoFilter ref="A1:F30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabel8" displayName="Tabel8" ref="A1:F30" totalsRowShown="0">
+  <autoFilter ref="A1:F30" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="City"/>
-    <tableColumn id="2" name="Supermarket size"/>
-    <tableColumn id="3" name="Supermarket size2"/>
-    <tableColumn id="4" name="Supermarket size3"/>
-    <tableColumn id="5" name="Supermarket size4"/>
-    <tableColumn id="6" name="Supermarket size5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="City"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Supermarket size"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Supermarket size2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Supermarket size3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Supermarket size4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Supermarket size5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabel9" displayName="Tabel9" ref="A1:F30" totalsRowShown="0">
-  <autoFilter ref="A1:F30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabel9" displayName="Tabel9" ref="A1:F30" totalsRowShown="0">
+  <autoFilter ref="A1:F30" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="City"/>
-    <tableColumn id="2" name="Supermarket size"/>
-    <tableColumn id="3" name="Supermarket size2"/>
-    <tableColumn id="4" name="Supermarket size3"/>
-    <tableColumn id="5" name="Supermarket size4"/>
-    <tableColumn id="6" name="Supermarket size5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="City"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Supermarket size"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Supermarket size2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Supermarket size3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Supermarket size4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Supermarket size5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -631,6 +640,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -666,6 +692,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -841,29 +884,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -881,21 +924,21 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -913,19 +956,19 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
@@ -934,19 +977,19 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
@@ -955,19 +998,19 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
@@ -986,12 +1029,12 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="14.65" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
@@ -1005,12 +1048,12 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.65" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13">
         <v>110</v>
       </c>
@@ -1027,12 +1070,12 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.65" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
       <c r="E15">
         <v>10</v>
       </c>
@@ -1077,12 +1120,12 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:5" ht="14.65" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
@@ -1096,12 +1139,12 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.65" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
       <c r="E22">
         <v>105</v>
       </c>
@@ -1118,12 +1161,12 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.65" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
       <c r="E24">
         <v>9.9</v>
       </c>
@@ -1162,12 +1205,12 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:5" ht="14.65" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
@@ -1181,12 +1224,12 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.65" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
       <c r="E31">
         <v>107</v>
       </c>
@@ -1203,12 +1246,12 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.65" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
       <c r="E33">
         <v>10.1</v>
       </c>
@@ -1247,12 +1290,12 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
@@ -1266,12 +1309,12 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
       <c r="E40">
         <v>110</v>
       </c>
@@ -1288,12 +1331,12 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
       <c r="E42">
         <v>9.5</v>
       </c>
@@ -1333,6 +1376,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="A9:K9"/>
@@ -1349,27 +1413,6 @@
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1377,7 +1420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -1732,7 +1775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2141,7 +2184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2440,7 +2483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4913,7 +4956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7386,7 +7429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9859,7 +9902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12332,7 +12375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14805,7 +14848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17280,7 +17323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -18970,7 +19013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
